--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_31.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_31.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9928643710724353</v>
+        <v>0.9039763788941717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.717925193503528</v>
+        <v>0.6914808583284133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7129571698983976</v>
+        <v>0.6975420884659611</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912588662672323</v>
+        <v>0.002045648556048274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02994670813716395</v>
+        <v>0.4029905961647692</v>
       </c>
       <c r="G2" t="n">
-        <v>1.886235529876963</v>
+        <v>2.063068920957923</v>
       </c>
       <c r="H2" t="n">
-        <v>1.026735559573855</v>
+        <v>1.081874412039904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02044697906451912</v>
+        <v>0.850978709918728</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3394140421223131</v>
+        <v>2.365051529701225</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1730511720190417</v>
+        <v>0.6348154032195258</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004176953518574</v>
+        <v>0.6707761562085888</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1804183186772026</v>
+        <v>0.6618408091836254</v>
       </c>
       <c r="N2" t="n">
-        <v>137.0166717448184</v>
+        <v>35.81768410377289</v>
       </c>
       <c r="O2" t="n">
-        <v>216.2436003612515</v>
+        <v>56.5385731265323</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9929371459163121</v>
+        <v>0.90404626339768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7178666314286241</v>
+        <v>0.691149501739966</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7119074614320093</v>
+        <v>0.6966611305730883</v>
       </c>
       <c r="E3" t="n">
-        <v>0.990812616373424</v>
+        <v>-0.002733018886414085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02964128768559222</v>
+        <v>0.4026973058534153</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8866271347415</v>
+        <v>2.065284703990627</v>
       </c>
       <c r="H3" t="n">
-        <v>1.030490305892532</v>
+        <v>1.085025547341836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.021490832472463</v>
+        <v>0.8550535899464901</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3379760703469355</v>
+        <v>2.368457275045539</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1721664534268863</v>
+        <v>0.6345843567670222</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004134353609964</v>
+        <v>0.6710157602206173</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1794959357829592</v>
+        <v>0.6615999266053065</v>
       </c>
       <c r="N3" t="n">
-        <v>137.0371740706293</v>
+        <v>35.81914020270933</v>
       </c>
       <c r="O3" t="n">
-        <v>216.2641026870623</v>
+        <v>56.54002922546874</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9930052900727274</v>
+        <v>0.9041130553868938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7178057266982485</v>
+        <v>0.6906141516142477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7108660160708816</v>
+        <v>0.695788550919243</v>
       </c>
       <c r="E4" t="n">
-        <v>0.990346875894154</v>
+        <v>-0.007455034898129043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02935530123868758</v>
+        <v>0.4024169941629967</v>
       </c>
       <c r="G4" t="n">
-        <v>1.887034404953962</v>
+        <v>2.068864592746366</v>
       </c>
       <c r="H4" t="n">
-        <v>1.034215495562814</v>
+        <v>1.088146714168565</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02258027763143952</v>
+        <v>0.8590801619916448</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3365600683259469</v>
+        <v>2.371776548961704</v>
       </c>
       <c r="K4" t="n">
-        <v>0.171333888179448</v>
+        <v>0.6343634558855016</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004094464347672</v>
+        <v>0.671244761326493</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1786279265092898</v>
+        <v>0.6613696215159317</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0565642551955</v>
+        <v>35.82053285814591</v>
       </c>
       <c r="O4" t="n">
-        <v>216.2834928716286</v>
+        <v>56.54142188090532</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9930690159431335</v>
+        <v>0.9042372036817488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7177427199333664</v>
+        <v>0.6899152122959684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.709833129440204</v>
+        <v>0.6940663645015439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9898624145873939</v>
+        <v>-0.01674624036510819</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02908785739299339</v>
+        <v>0.4018959703276083</v>
       </c>
       <c r="G5" t="n">
-        <v>1.887455731480848</v>
+        <v>2.073538403186019</v>
       </c>
       <c r="H5" t="n">
-        <v>1.03791007115054</v>
+        <v>1.094306875126569</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02371351394834455</v>
+        <v>0.8670029873497782</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3351657090321395</v>
+        <v>2.378252229959385</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1705516267673615</v>
+        <v>0.6339526562193807</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004057161399141</v>
+        <v>0.6716704126231385</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1778123626093865</v>
+        <v>0.6609413332575517</v>
       </c>
       <c r="N5" t="n">
-        <v>137.0748689272104</v>
+        <v>35.82312400826418</v>
       </c>
       <c r="O5" t="n">
-        <v>216.3017975436434</v>
+        <v>56.54401303102359</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9931283195948778</v>
+        <v>0.9042946958350502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7176775802700817</v>
+        <v>0.6896146681025233</v>
       </c>
       <c r="D6" t="n">
-        <v>0.708808471543305</v>
+        <v>0.6932166021377955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9893598206025085</v>
+        <v>-0.02131812372770114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02883897265300975</v>
+        <v>0.4016546880590694</v>
       </c>
       <c r="G6" t="n">
-        <v>1.887891320709173</v>
+        <v>2.075548143591465</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04157521303467</v>
+        <v>1.097346425829645</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02488916564308761</v>
+        <v>0.870901537819716</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3337937558532645</v>
+        <v>2.381408556510448</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1698204129455872</v>
+        <v>0.6337623277373541</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004022447066413</v>
+        <v>0.6718675285773149</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1770500195013979</v>
+        <v>0.6607429020980108</v>
       </c>
       <c r="N6" t="n">
-        <v>137.0920551789899</v>
+        <v>35.82432508885952</v>
       </c>
       <c r="O6" t="n">
-        <v>216.318983795423</v>
+        <v>56.54521411161893</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9931834398659061</v>
+        <v>0.9043491020799016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7176103789549466</v>
+        <v>0.6893357445865728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7077923180510792</v>
+        <v>0.692373826970204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9888401309536443</v>
+        <v>-0.02584528042682765</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02860764466697224</v>
+        <v>0.4014263566881495</v>
       </c>
       <c r="G7" t="n">
-        <v>1.888340696212916</v>
+        <v>2.077413306426951</v>
       </c>
       <c r="H7" t="n">
-        <v>1.045209935156396</v>
+        <v>1.100360983737207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02610480696550999</v>
+        <v>0.8747619488313504</v>
       </c>
       <c r="J7" t="n">
-        <v>0.332444057887484</v>
+        <v>2.384491485488029</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1691379456744471</v>
+        <v>0.6335821625394369</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003990181541909</v>
+        <v>0.6720540642739483</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1763384981856235</v>
+        <v>0.660555066894625</v>
       </c>
       <c r="N7" t="n">
-        <v>137.1081626016511</v>
+        <v>35.82546236574368</v>
       </c>
       <c r="O7" t="n">
-        <v>216.3350912180842</v>
+        <v>56.54635138850308</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9932344716298254</v>
+        <v>0.9047336543398987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7175412080874564</v>
+        <v>0.6868016323419555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7067841265378818</v>
+        <v>0.6843026717579113</v>
       </c>
       <c r="E8" t="n">
-        <v>0.988303777482048</v>
+        <v>-0.06898928046692321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02839347527064735</v>
+        <v>0.3998124731173356</v>
       </c>
       <c r="G8" t="n">
-        <v>1.888803242122326</v>
+        <v>2.094358926675221</v>
       </c>
       <c r="H8" t="n">
-        <v>1.048816177740801</v>
+        <v>1.12923103793911</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02735942776644808</v>
+        <v>0.9115518335006554</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3311170078827619</v>
+        <v>2.411666860282001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1685036357787195</v>
+        <v>0.6323072616357776</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003960309289858</v>
+        <v>0.6733725291653671</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1756771844044321</v>
+        <v>0.6592258908200881</v>
       </c>
       <c r="N8" t="n">
-        <v>137.1231918084029</v>
+        <v>35.83351931801992</v>
       </c>
       <c r="O8" t="n">
-        <v>216.3501204248359</v>
+        <v>56.55440834077933</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9932815135869466</v>
+        <v>0.904811804635487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7174702475907548</v>
+        <v>0.685299892445129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7057844129701072</v>
+        <v>0.6812358874742641</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9877516454568293</v>
+        <v>-0.08535354293121755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02819605023994394</v>
+        <v>0.3994844930448608</v>
       </c>
       <c r="G9" t="n">
-        <v>1.889277755290511</v>
+        <v>2.104401068280176</v>
       </c>
       <c r="H9" t="n">
-        <v>1.052392095206008</v>
+        <v>1.140200747499346</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02865095725285547</v>
+        <v>0.9255060178182923</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3298098304099675</v>
+        <v>2.420916676106273</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1679167955862186</v>
+        <v>0.6320478566096565</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00393277253447</v>
+        <v>0.6736404730359555</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1750653612100099</v>
+        <v>0.6589554423849626</v>
       </c>
       <c r="N9" t="n">
-        <v>137.1371467465221</v>
+        <v>35.8351606608738</v>
       </c>
       <c r="O9" t="n">
-        <v>216.3640753629552</v>
+        <v>56.5560496836332</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9933247186192126</v>
+        <v>0.9048251450479897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7173974527083832</v>
+        <v>0.6850387173793437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7047928062465508</v>
+        <v>0.6804822081487734</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9871842099532034</v>
+        <v>-0.08937770245833399</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02801472796205388</v>
+        <v>0.3994285061874021</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88976453500412</v>
+        <v>2.106147547147683</v>
       </c>
       <c r="H10" t="n">
-        <v>1.055939014959507</v>
+        <v>1.142896614745788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02997828414405806</v>
+        <v>0.9289375115313442</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3285220569619309</v>
+        <v>2.423100802075988</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1673760077252827</v>
+        <v>0.632003565011624</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003907481783876</v>
+        <v>0.6736862115931077</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1745015508902487</v>
+        <v>0.6589092652019057</v>
       </c>
       <c r="N10" t="n">
-        <v>137.1500498169019</v>
+        <v>35.83544097604005</v>
       </c>
       <c r="O10" t="n">
-        <v>216.3769784333349</v>
+        <v>56.55632999879946</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9933642113667094</v>
+        <v>0.904836006089606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7173229289890501</v>
+        <v>0.6847585115770614</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7038093806356991</v>
+        <v>0.6797335958937352</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9866023627948896</v>
+        <v>-0.09337845871233008</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02784898534919843</v>
+        <v>0.3993829247191599</v>
       </c>
       <c r="G11" t="n">
-        <v>1.890262875458451</v>
+        <v>2.108021284637774</v>
       </c>
       <c r="H11" t="n">
-        <v>1.05945667134723</v>
+        <v>1.145574357375027</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03133932231467845</v>
+        <v>0.9323490487332199</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3272544628561023</v>
+        <v>2.425240433886716</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1668801526521307</v>
+        <v>0.6319675028980208</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003884364078024</v>
+        <v>0.6737234494500778</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1739845862400711</v>
+        <v>0.6588716678494675</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1619174919527</v>
+        <v>35.83566922248985</v>
       </c>
       <c r="O11" t="n">
-        <v>216.3888461083858</v>
+        <v>56.55655824524926</v>
       </c>
     </row>
   </sheetData>
